--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2022/Báo cáo tháng/XLSX_Thể_300922.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2022/Báo cáo tháng/XLSX_Thể_300922.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="24">
   <si>
     <t>BÁO CÁO SẢN XUẤT</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>ĐL Anh Tuấn BG</t>
+  </si>
+  <si>
+    <t>Test lại, chuyển trang</t>
+  </si>
+  <si>
+    <t>Chuyển sang port 15050</t>
+  </si>
+  <si>
+    <t>300 Thiết bị</t>
   </si>
 </sst>
 </file>
@@ -216,10 +225,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,7 +548,7 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,18 +566,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -633,7 +642,7 @@
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -664,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -1206,19 +1215,35 @@
       </c>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="B23" s="5">
+        <v>44825</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44826</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">

--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2022/Báo cáo tháng/XLSX_Thể_300922.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2022/Báo cáo tháng/XLSX_Thể_300922.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
   <si>
     <t>BÁO CÁO SẢN XUẤT</t>
   </si>
@@ -52,12 +52,6 @@
     <t>01-2021</t>
   </si>
   <si>
-    <t>Ngày xuất kho</t>
-  </si>
-  <si>
-    <t>Ngày nhập kho</t>
-  </si>
-  <si>
     <t>LÔ sản xuất</t>
   </si>
   <si>
@@ -67,43 +61,37 @@
     <t>Chi tiết công việc</t>
   </si>
   <si>
-    <t>IMEI</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
     <t>Kết quả</t>
   </si>
   <si>
-    <t>TG102E-2G</t>
-  </si>
-  <si>
-    <t>Chuyển trang, tắt ngủ</t>
-  </si>
-  <si>
     <t>Chuyển trang</t>
   </si>
   <si>
-    <t>03-2020</t>
-  </si>
-  <si>
-    <t>Chuyển sang port 14747, tắt ngủ</t>
-  </si>
-  <si>
     <t>Chuyển sang port 14747</t>
   </si>
   <si>
     <t>ĐL Anh Tuấn BG</t>
   </si>
   <si>
-    <t>Test lại, chuyển trang</t>
-  </si>
-  <si>
-    <t>Chuyển sang port 15050</t>
-  </si>
-  <si>
-    <t>300 Thiết bị</t>
+    <t>Ngày xử lý</t>
+  </si>
+  <si>
+    <t>Ngày trả</t>
+  </si>
+  <si>
+    <t>Dây nguồn</t>
+  </si>
+  <si>
+    <t>IMEI/ Số lượng</t>
+  </si>
+  <si>
+    <t>TEST LẠI</t>
+  </si>
+  <si>
+    <t>TEST LẠI ĐẦU COS</t>
   </si>
 </sst>
 </file>
@@ -545,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,28 +572,28 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>4</v>
@@ -616,31 +604,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>44819</v>
+        <v>44845</v>
       </c>
       <c r="C3" s="5">
-        <v>44819</v>
+        <v>44845</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>860906041269132</v>
+        <v>862205051182782</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K3" s="8"/>
     </row>
@@ -649,269 +637,269 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>44819</v>
+        <v>44845</v>
       </c>
       <c r="C4" s="5">
-        <v>44819</v>
+        <v>44845</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>860906041133338</v>
+        <v>862205051216275</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>44819</v>
+        <v>44845</v>
       </c>
       <c r="C5" s="5">
-        <v>44819</v>
+        <v>44845</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>860906041126811</v>
+        <v>862205051239236</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44845</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44845</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>861881054167532</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C6" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2">
-        <v>860906041121689</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44845</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44845</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>862205051237693</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44845</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44845</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C7" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2">
-        <v>860906041121671</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>862205051180083</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2">
-        <v>860906041166536</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44845</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44845</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>862205051188623</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2">
-        <v>860906041335552</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44845</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44845</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>862205051190934</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2">
-        <v>860906041181139</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44845</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44845</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>862205051190769</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2">
-        <v>860906041156429</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44845</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44845</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>862205051183228</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C12" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2">
-        <v>860906041118164</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J12" s="7"/>
     </row>
@@ -920,10 +908,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>44819</v>
+        <v>44845</v>
       </c>
       <c r="C13" s="5">
-        <v>44819</v>
+        <v>44845</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>5</v>
@@ -935,319 +923,175 @@
         <v>862205051202796</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5">
-        <v>44819</v>
+        <v>44845</v>
       </c>
       <c r="C14" s="5">
-        <v>44819</v>
+        <v>44845</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>862205051234948</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="F14" s="7">
+        <v>30</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
+      <c r="I14" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C15" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>862205051239145</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C16" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>862205051237610</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C17" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>862205051205328</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C18" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>862205051172866</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C19" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>862205051236695</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C20" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>862205051236331</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C21" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>862205051235903</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5">
-        <v>44819</v>
-      </c>
-      <c r="C22" s="5">
-        <v>44819</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>862205051175927</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5">
-        <v>44825</v>
-      </c>
-      <c r="C23" s="5">
-        <v>44826</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1261,7 +1105,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1275,7 +1119,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1289,7 +1133,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1303,7 +1147,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1317,7 +1161,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1331,7 +1175,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1345,7 +1189,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1359,7 +1203,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1373,7 +1217,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1387,7 +1231,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1401,7 +1245,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1415,7 +1259,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1429,7 +1273,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1443,7 +1287,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1457,7 +1301,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1471,7 +1315,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1485,7 +1329,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1499,7 +1343,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1513,7 +1357,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1527,7 +1371,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1541,7 +1385,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1555,7 +1399,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1569,7 +1413,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1583,7 +1427,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1597,7 +1441,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1611,7 +1455,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1625,7 +1469,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1639,7 +1483,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1653,7 +1497,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1667,7 +1511,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1681,7 +1525,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1695,7 +1539,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1709,7 +1553,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1723,7 +1567,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1737,7 +1581,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1751,7 +1595,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1765,7 +1609,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1779,7 +1623,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1793,7 +1637,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1807,7 +1651,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1821,7 +1665,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1835,7 +1679,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1849,7 +1693,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1863,7 +1707,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1877,7 +1721,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1891,7 +1735,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1905,7 +1749,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1919,7 +1763,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1933,7 +1777,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1947,7 +1791,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1959,146 +1803,6 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
-        <v>73</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
-        <v>74</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
-        <v>75</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
-        <v>76</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
-        <v>77</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
-        <v>78</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
-        <v>79</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
-        <v>80</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
-        <v>81</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
-        <v>82</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2022/Báo cáo tháng/XLSX_Thể_300922.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/BCSXBH 2022/Báo cáo tháng/XLSX_Thể_300922.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="23">
   <si>
     <t>BÁO CÁO SẢN XUẤT</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>TEST LẠI ĐẦU COS</t>
+  </si>
+  <si>
+    <t>Chuyển sang port 15757</t>
+  </si>
+  <si>
+    <t>TG102E</t>
+  </si>
+  <si>
+    <t>01-2020</t>
   </si>
 </sst>
 </file>
@@ -190,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +223,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,18 +566,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -963,564 +975,1204 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>23</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9">
+        <v>860906041205391</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>24</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C16" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9">
+        <v>860906041150936</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>25</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="B17" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C17" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="9">
+        <v>860906041177335</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>26</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="B18" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9">
+        <v>860906041195477</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>27</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="B19" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C19" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9">
+        <v>860906041288447</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>28</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C20" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9">
+        <v>860906041238285</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>29</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="B21" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="9">
+        <v>860906041193845</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>30</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9">
+        <v>860906041120236</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>31</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="B23" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="9">
+        <v>860906041164754</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>32</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="B24" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C24" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9">
+        <v>860906041146769</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>33</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="B25" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C25" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9">
+        <v>860906041174456</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>34</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="B26" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C26" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9">
+        <v>860906041155257</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>35</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="B27" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C27" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="9">
+        <v>860906041155240</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>36</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="B28" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C28" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="9">
+        <v>860906041205813</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>37</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="B29" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C29" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="9">
+        <v>860906041143261</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>38</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="B30" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C30" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="9">
+        <v>860906041222685</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>39</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="B31" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C31" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="9">
+        <v>860906041205235</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>40</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="B32" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C32" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="9">
+        <v>860906041184489</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>41</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="B33" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C33" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="9">
+        <v>860906041209435</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>42</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="B34" s="5">
+        <v>44858</v>
+      </c>
+      <c r="C34" s="5">
+        <v>44858</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="9">
+        <v>860906041289080</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>43</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="B35" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C35" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="9">
+        <v>860906041197325</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>44</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="B36" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C36" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="9">
+        <v>860906041249399</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>45</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="B37" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C37" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="9">
+        <v>860906041282556</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>46</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="B38" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C38" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="9">
+        <v>860906041151207</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>47</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="B39" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C39" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="9">
+        <v>860906041215309</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>48</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="B40" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C40" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="9">
+        <v>860906041220895</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>49</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="B41" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C41" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="9">
+        <v>860906041279628</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>50</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="B42" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C42" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="9">
+        <v>860906041142933</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>51</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="B43" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C43" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="9">
+        <v>860906041287811</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>52</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="B44" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C44" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="9">
+        <v>860906041190932</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>53</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="B45" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C45" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="9">
+        <v>860906041141919</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>54</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="B46" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C46" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="9">
+        <v>860906041142826</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>55</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="B47" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C47" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="9">
+        <v>860906041179646</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>56</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="B48" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C48" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="9">
+        <v>860906041281426</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>57</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="B49" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C49" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="9">
+        <v>860906041145431</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>58</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="B50" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C50" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="9">
+        <v>860906041289197</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>59</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="B51" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C51" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="9">
+        <v>860906041288884</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>60</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="B52" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C52" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="9">
+        <v>860906041157840</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>61</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="B53" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C53" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="9">
+        <v>860906041143683</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>62</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
+      <c r="B54" s="5">
+        <v>44860</v>
+      </c>
+      <c r="C54" s="5">
+        <v>44860</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="9">
+        <v>860906041268555</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
